--- a/result.xlsx
+++ b/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>node</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>cbr(Mbps)</t>
+  </si>
+  <si>
+    <t>802.11n</t>
   </si>
 </sst>
 </file>
@@ -98,6 +101,6004 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Node</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> number vs. throughput without hidden terminal</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>802.11a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.3741199999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3271600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1012199999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0098200000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-586A-4574-970E-7E269E2430E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>802.11b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.5206599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.51685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4305399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-586A-4574-970E-7E269E2430E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>802.11g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.4724299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.35057</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3404199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.34422</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-586A-4574-970E-7E269E2430E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>802.11n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.4363200000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2459199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0567900000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9666700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-586A-4574-970E-7E269E2430E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="226"/>
+        <c:overlap val="-91"/>
+        <c:axId val="532071408"/>
+        <c:axId val="532071736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="532071408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Node number</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532071736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="532071736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Throughput</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532071408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Node</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> number vs. throughput with hidden terminal</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>802.11a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.75906099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11170099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.173899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9349299999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7317-4184-8B99-5DBB34B407B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>802.11b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.69305600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.351605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28813899999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26148300000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7317-4184-8B99-5DBB34B407B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>802.11g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.458229</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.303371</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26148300000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23355699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7317-4184-8B99-5DBB34B407B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>802.11n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.68187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70701899999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.313525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.163744</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7317-4184-8B99-5DBB34B407B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="226"/>
+        <c:overlap val="-100"/>
+        <c:axId val="532071408"/>
+        <c:axId val="532071736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="532071408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Node number</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532071736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="532071736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Throughput</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532071408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>CBR </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>vs. throughput without hidden terminal</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>802.11a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.4655100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3512700000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3525400000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4312399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3906200000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C4C2-439A-AA57-4693A9868B51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>802.11b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.5117799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5028900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.50162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5117799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.51939</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C4C2-439A-AA57-4693A9868B51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>802.11g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.38611</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4026099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3823000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3734200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3911899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C4C2-439A-AA57-4693A9868B51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>802.11n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.3741199999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4325099999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3182700000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3385800000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4287000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C4C2-439A-AA57-4693A9868B51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="226"/>
+        <c:overlap val="-91"/>
+        <c:axId val="532071408"/>
+        <c:axId val="532071736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="532071408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>CBR</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> (Mbps)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532071736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="532071736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Throughput</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532071408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>CBR </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>vs. throughput with hidden terminal</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>802.11a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$12:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.73240499999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72225099999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73621300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80094900000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77683199999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-03B8-43B9-8138-D7F173C7EA24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>802.11b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$13:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.54835199999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58897100000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55596800000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58643199999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58643199999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-03B8-43B9-8138-D7F173C7EA24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>802.11g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$14:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.47980800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46203699999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44172800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45949899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.467115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-03B8-43B9-8138-D7F173C7EA24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>802.11n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$15:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.7174100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7516799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7288300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.74153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-03B8-43B9-8138-D7F173C7EA24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="226"/>
+        <c:overlap val="-91"/>
+        <c:axId val="532071408"/>
+        <c:axId val="532071736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="532071408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>CBR</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> (Mbps)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532071736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="532071736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Throughput</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532071408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>233364</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>195264</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,10 +6398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,20 +6409,20 @@
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -437,23 +6438,23 @@
       <c r="E3">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>6</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>9</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -469,23 +6470,23 @@
       <c r="E4">
         <v>4.0098200000000004</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.75906099999999999</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.11170099999999999</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.173899</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3.9349299999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -501,23 +6502,23 @@
       <c r="E5">
         <v>1.4115</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.69305600000000001</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.351605</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.28813899999999998</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.26148300000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -533,188 +6534,259 @@
       <c r="E6">
         <v>1.34422</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.458229</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.303371</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.26148300000000002</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.23355699999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>4.4363200000000003</v>
+      </c>
+      <c r="C7">
+        <v>4.2459199999999999</v>
+      </c>
+      <c r="D7">
+        <v>4.0567900000000003</v>
+      </c>
+      <c r="E7">
+        <v>3.9666700000000001</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>1.68187</v>
+      </c>
+      <c r="I7">
+        <v>0.70701899999999995</v>
+      </c>
+      <c r="J7">
+        <v>0.313525</v>
+      </c>
+      <c r="K7">
+        <v>0.163744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>20</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>30</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>40</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>50</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H11" t="s">
         <v>8</v>
       </c>
-      <c r="H10">
+      <c r="I11">
         <v>10</v>
       </c>
-      <c r="I10">
+      <c r="J11">
         <v>20</v>
       </c>
-      <c r="J10">
+      <c r="K11">
         <v>30</v>
       </c>
-      <c r="K10">
+      <c r="L11">
         <v>40</v>
       </c>
-      <c r="L10">
+      <c r="M11">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>4.4655100000000001</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>4.3512700000000004</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>4.3525400000000003</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>4.4312399999999998</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>4.3906200000000002</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H12" t="s">
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="I12">
         <v>0.73240499999999997</v>
       </c>
-      <c r="I11">
+      <c r="J12">
         <v>0.72225099999999998</v>
       </c>
-      <c r="J11">
+      <c r="K12">
         <v>0.73621300000000001</v>
       </c>
-      <c r="K11">
+      <c r="L12">
         <v>0.80094900000000002</v>
       </c>
-      <c r="L11">
+      <c r="M12">
         <v>0.77683199999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>1.5117799999999999</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>1.5028900000000001</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>1.50162</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>1.5117799999999999</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>1.51939</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H13" t="s">
         <v>2</v>
       </c>
-      <c r="H12">
+      <c r="I13">
         <v>0.54835199999999995</v>
       </c>
-      <c r="I12">
+      <c r="J13">
         <v>0.58897100000000002</v>
       </c>
-      <c r="J12">
+      <c r="K13">
         <v>0.55596800000000002</v>
       </c>
-      <c r="K12">
+      <c r="L13">
         <v>0.58643199999999995</v>
       </c>
-      <c r="L12">
+      <c r="M13">
         <v>0.58643199999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>1.38611</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>1.4026099999999999</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>1.3823000000000001</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>1.3734200000000001</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>1.3911899999999999</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H14" t="s">
         <v>3</v>
       </c>
-      <c r="H13">
+      <c r="I14">
         <v>0.47980800000000001</v>
       </c>
-      <c r="I13">
+      <c r="J14">
         <v>0.46203699999999998</v>
       </c>
-      <c r="J13">
+      <c r="K14">
         <v>0.44172800000000001</v>
       </c>
-      <c r="K13">
+      <c r="L14">
         <v>0.45949899999999999</v>
       </c>
-      <c r="L13">
+      <c r="M14">
         <v>0.467115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>4.3741199999999996</v>
+      </c>
+      <c r="C15">
+        <v>4.4325099999999997</v>
+      </c>
+      <c r="D15">
+        <v>4.3182700000000001</v>
+      </c>
+      <c r="E15">
+        <v>4.3385800000000003</v>
+      </c>
+      <c r="F15">
+        <v>4.4287000000000001</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>1.7174100000000001</v>
+      </c>
+      <c r="J15">
+        <v>1.7301</v>
+      </c>
+      <c r="K15">
+        <v>1.7516799999999999</v>
+      </c>
+      <c r="L15">
+        <v>1.7288300000000001</v>
+      </c>
+      <c r="M15">
+        <v>1.74153</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheng.yic/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -54,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,7 +97,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -104,9 +113,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -148,6 +157,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -246,8 +256,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -273,16 +284,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -294,21 +305,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.3741199999999996</c:v>
+                  <c:v>24.7596</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3271600000000001</c:v>
+                  <c:v>25.3359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1012199999999996</c:v>
+                  <c:v>24.9475</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0098200000000004</c:v>
+                  <c:v>24.5197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-586A-4574-970E-7E269E2430E9}"/>
             </c:ext>
@@ -376,8 +387,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -403,16 +415,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -424,21 +436,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.5206599999999999</c:v>
+                  <c:v>5.49494</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.51685</c:v>
+                  <c:v>5.59268</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4305399999999999</c:v>
+                  <c:v>5.57237</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4115</c:v>
+                  <c:v>5.56222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-586A-4574-970E-7E269E2430E9}"/>
             </c:ext>
@@ -506,8 +518,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -533,16 +546,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -554,21 +567,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.4724299999999999</c:v>
+                  <c:v>19.4906</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.35057</c:v>
+                  <c:v>20.006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3404199999999999</c:v>
+                  <c:v>19.2723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.34422</c:v>
+                  <c:v>18.5703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-586A-4574-970E-7E269E2430E9}"/>
             </c:ext>
@@ -636,8 +649,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -663,16 +677,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -684,21 +698,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.4363200000000003</c:v>
+                  <c:v>19.0717</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2459199999999999</c:v>
+                  <c:v>19.615</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0567900000000003</c:v>
+                  <c:v>18.5145</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9666700000000001</c:v>
+                  <c:v>18.531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-586A-4574-970E-7E269E2430E9}"/>
             </c:ext>
@@ -715,11 +729,11 @@
         </c:dLbls>
         <c:gapWidth val="226"/>
         <c:overlap val="-91"/>
-        <c:axId val="532071408"/>
-        <c:axId val="532071736"/>
+        <c:axId val="2131465488"/>
+        <c:axId val="2132243248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="532071408"/>
+        <c:axId val="2131465488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -752,6 +766,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -818,7 +833,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532071736"/>
+        <c:crossAx val="2132243248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -826,7 +841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="532071736"/>
+        <c:axId val="2132243248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -867,12 +882,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>Throughput</a:t>
+                  <a:t>Throughput (Mbps)</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -933,7 +949,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532071408"/>
+        <c:crossAx val="2131465488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -947,6 +963,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1014,9 +1031,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1058,6 +1075,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1156,8 +1174,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1183,16 +1202,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1204,21 +1223,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.75906099999999999</c:v>
+                  <c:v>16.2373</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11170099999999999</c:v>
+                  <c:v>11.5839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.173899</c:v>
+                  <c:v>9.09477</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9349299999999997E-2</c:v>
+                  <c:v>7.23393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7317-4184-8B99-5DBB34B407B9}"/>
             </c:ext>
@@ -1286,8 +1305,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1313,16 +1333,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1334,21 +1354,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.69305600000000001</c:v>
+                  <c:v>3.08702</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.351605</c:v>
+                  <c:v>1.96366</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28813899999999998</c:v>
+                  <c:v>1.37723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26148300000000002</c:v>
+                  <c:v>0.992619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7317-4184-8B99-5DBB34B407B9}"/>
             </c:ext>
@@ -1416,8 +1436,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1443,16 +1464,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1464,21 +1485,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.458229</c:v>
+                  <c:v>14.6506</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.303371</c:v>
+                  <c:v>11.8429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26148300000000002</c:v>
+                  <c:v>11.405</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23355699999999999</c:v>
+                  <c:v>9.968070000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7317-4184-8B99-5DBB34B407B9}"/>
             </c:ext>
@@ -1546,8 +1567,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1573,16 +1595,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1594,21 +1616,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.68187</c:v>
+                  <c:v>14.2559</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70701899999999995</c:v>
+                  <c:v>12.376</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.313525</c:v>
+                  <c:v>11.5636</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.163744</c:v>
+                  <c:v>10.1128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7317-4184-8B99-5DBB34B407B9}"/>
             </c:ext>
@@ -1624,11 +1646,11 @@
         </c:dLbls>
         <c:gapWidth val="226"/>
         <c:overlap val="-100"/>
-        <c:axId val="532071408"/>
-        <c:axId val="532071736"/>
+        <c:axId val="2131511776"/>
+        <c:axId val="2131517744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="532071408"/>
+        <c:axId val="2131511776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1661,6 +1683,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1727,7 +1750,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532071736"/>
+        <c:crossAx val="2131517744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1735,7 +1758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="532071736"/>
+        <c:axId val="2131517744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1776,12 +1799,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>Throughput</a:t>
+                  <a:t>Throughput (Mbps)</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1842,7 +1866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532071408"/>
+        <c:crossAx val="2131511776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1856,6 +1880,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1923,9 +1948,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1967,6 +1992,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2065,8 +2091,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2092,19 +2119,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2116,24 +2143,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.4655100000000001</c:v>
+                  <c:v>24.4727</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3512700000000004</c:v>
+                  <c:v>24.672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3525400000000003</c:v>
+                  <c:v>24.7457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4312399999999998</c:v>
+                  <c:v>24.8485</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3906200000000002</c:v>
+                  <c:v>24.7457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C4C2-439A-AA57-4693A9868B51}"/>
             </c:ext>
@@ -2201,8 +2228,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2228,19 +2256,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2252,24 +2280,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.5117799999999999</c:v>
+                  <c:v>5.52287</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5028900000000001</c:v>
+                  <c:v>5.48733</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.50162</c:v>
+                  <c:v>5.50129</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5117799999999999</c:v>
+                  <c:v>5.48225</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.51939</c:v>
+                  <c:v>5.4099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C4C2-439A-AA57-4693A9868B51}"/>
             </c:ext>
@@ -2337,8 +2365,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2364,19 +2393,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2388,24 +2417,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.38611</c:v>
+                  <c:v>19.4081</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4026099999999999</c:v>
+                  <c:v>19.4995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3823000000000001</c:v>
+                  <c:v>19.3802</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3734200000000001</c:v>
+                  <c:v>19.5084</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3911899999999999</c:v>
+                  <c:v>19.6874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C4C2-439A-AA57-4693A9868B51}"/>
             </c:ext>
@@ -2473,8 +2502,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2500,19 +2530,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2524,24 +2554,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.3741199999999996</c:v>
+                  <c:v>19.2634</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4325099999999997</c:v>
+                  <c:v>18.7341</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3182700000000001</c:v>
+                  <c:v>19.0197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3385800000000003</c:v>
+                  <c:v>19.0527</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4287000000000001</c:v>
+                  <c:v>19.1428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C4C2-439A-AA57-4693A9868B51}"/>
             </c:ext>
@@ -2558,11 +2588,11 @@
         </c:dLbls>
         <c:gapWidth val="226"/>
         <c:overlap val="-91"/>
-        <c:axId val="532071408"/>
-        <c:axId val="532071736"/>
+        <c:axId val="2131591840"/>
+        <c:axId val="2131597920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="532071408"/>
+        <c:axId val="2131591840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2599,6 +2629,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2665,7 +2696,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532071736"/>
+        <c:crossAx val="2131597920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2673,7 +2704,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="532071736"/>
+        <c:axId val="2131597920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2714,12 +2745,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>Throughput</a:t>
+                  <a:t>Throughput (Mbps)</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2780,7 +2812,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532071408"/>
+        <c:crossAx val="2131591840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2794,6 +2826,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2861,9 +2894,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2905,6 +2938,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3003,8 +3037,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3030,19 +3065,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3054,24 +3089,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.73240499999999997</c:v>
+                  <c:v>15.9758</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72225099999999998</c:v>
+                  <c:v>16.1751</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73621300000000001</c:v>
+                  <c:v>16.1434</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80094900000000002</c:v>
+                  <c:v>16.2081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77683199999999997</c:v>
+                  <c:v>16.2627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-03B8-43B9-8138-D7F173C7EA24}"/>
             </c:ext>
@@ -3139,8 +3174,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3166,19 +3202,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3190,24 +3226,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.54835199999999995</c:v>
+                  <c:v>3.14541</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58897100000000002</c:v>
+                  <c:v>3.13145</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55596800000000002</c:v>
+                  <c:v>3.45132</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58643199999999995</c:v>
+                  <c:v>5.07479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58643199999999995</c:v>
+                  <c:v>3.06544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-03B8-43B9-8138-D7F173C7EA24}"/>
             </c:ext>
@@ -3275,8 +3311,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3302,19 +3339,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3326,24 +3363,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.47980800000000001</c:v>
+                  <c:v>14.6227</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46203699999999998</c:v>
+                  <c:v>14.5694</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44172800000000001</c:v>
+                  <c:v>15.0353</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45949899999999999</c:v>
+                  <c:v>14.6836</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.467115</c:v>
+                  <c:v>14.6215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-03B8-43B9-8138-D7F173C7EA24}"/>
             </c:ext>
@@ -3411,8 +3448,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3438,19 +3476,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3462,24 +3500,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.7174100000000001</c:v>
+                  <c:v>14.2965</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7301</c:v>
+                  <c:v>14.4298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7516799999999999</c:v>
+                  <c:v>14.4628</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7288300000000001</c:v>
+                  <c:v>14.4577</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.74153</c:v>
+                  <c:v>14.412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-03B8-43B9-8138-D7F173C7EA24}"/>
             </c:ext>
@@ -3496,11 +3534,11 @@
         </c:dLbls>
         <c:gapWidth val="226"/>
         <c:overlap val="-91"/>
-        <c:axId val="532071408"/>
-        <c:axId val="532071736"/>
+        <c:axId val="2131659984"/>
+        <c:axId val="2131666064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="532071408"/>
+        <c:axId val="2131659984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3537,6 +3575,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3603,7 +3642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532071736"/>
+        <c:crossAx val="2131666064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3611,7 +3650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="532071736"/>
+        <c:axId val="2131666064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3652,12 +3691,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>Throughput</a:t>
+                  <a:t>Throughput (Mbps)</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3718,7 +3758,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532071408"/>
+        <c:crossAx val="2131659984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3732,6 +3772,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3794,6 +3835,3081 @@
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hidden Terminal Comparison</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - 802.11a Standard</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>without hidden terminal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$4:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24.7596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.3359</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.9475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.5197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>with hidden terminal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$5:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16.2373</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.5839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.09477</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.23393</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2042437072"/>
+        <c:axId val="-2042067744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2042437072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Nodes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2042067744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2042067744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Mbps)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2042437072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hidden Terminal Comparison - 802.11b Standard</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>without hidden terminal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$7:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$8:$T$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.49494</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.59268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.57237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.56222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>with hidden terminal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$7:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$9:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.08702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.96366</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.37723</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.992619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2045075296"/>
+        <c:axId val="-2040908080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2045075296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2040908080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2040908080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Mbps)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2045075296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hidden Terminal Comparison - 802.11g standard</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>without hidden terminal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$11:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$12:$T$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>19.4906</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.2723</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.5703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>with hidden terminal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$11:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$13:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14.6506</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.8429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.968070000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2048935824"/>
+        <c:axId val="-2045094864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2048935824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Nodes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2045094864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2045094864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Mbps)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2048935824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hidden Terminal Comparison - 802.11n standard</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>without hidden terminal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$15:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$16:$T$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>19.0717</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.615</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.5145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>with hidden terminal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$15:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$17:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14.2559</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.5636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.1128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2041240464"/>
+        <c:axId val="-2040638784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2041240464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Nodes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2040638784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2040638784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thoughput</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Mbps)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2041240464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Saturation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Analysis - No. of Nodes vs Throughput </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20.3868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.2009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.5146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.1582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.4095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.181</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.1303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.9043</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.8472</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.9119</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.7088</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.7685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2098664448"/>
+        <c:axId val="-2103916512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2098664448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Nodes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2103916512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2103916512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2098664448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3958,6 +7074,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5951,6 +9267,2534 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6005,15 +11849,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>141288</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6036,16 +11880,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>233364</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6075,9 +11919,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>195264</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6093,6 +11937,161 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6398,23 +12397,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="AB10" workbookViewId="0">
+      <selection activeCell="AU19" sqref="AU19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -6422,7 +12421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -6453,141 +12452,215 @@
       <c r="K3">
         <v>12</v>
       </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>6</v>
+      </c>
+      <c r="S3">
+        <v>9</v>
+      </c>
+      <c r="T3">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>4.3741199999999996</v>
+        <v>24.759599999999999</v>
       </c>
       <c r="C4">
-        <v>4.3271600000000001</v>
+        <v>25.335899999999999</v>
       </c>
       <c r="D4">
-        <v>4.1012199999999996</v>
+        <v>24.947500000000002</v>
       </c>
       <c r="E4">
-        <v>4.0098200000000004</v>
+        <v>24.5197</v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0.75906099999999999</v>
+        <v>16.237300000000001</v>
       </c>
       <c r="I4">
-        <v>0.11170099999999999</v>
+        <v>11.5839</v>
       </c>
       <c r="J4">
-        <v>0.173899</v>
+        <v>9.0947700000000005</v>
       </c>
       <c r="K4">
-        <v>3.9349299999999997E-2</v>
+        <v>7.23393</v>
+      </c>
+      <c r="Q4">
+        <v>24.759599999999999</v>
+      </c>
+      <c r="R4">
+        <v>25.335899999999999</v>
+      </c>
+      <c r="S4">
+        <v>24.947500000000002</v>
+      </c>
+      <c r="T4">
+        <v>24.5197</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>1.5206599999999999</v>
+        <v>5.4949399999999997</v>
       </c>
       <c r="C5">
-        <v>1.51685</v>
+        <v>5.5926799999999997</v>
       </c>
       <c r="D5">
-        <v>1.4305399999999999</v>
+        <v>5.5723700000000003</v>
       </c>
       <c r="E5">
-        <v>1.4115</v>
+        <v>5.5622199999999999</v>
       </c>
       <c r="G5" t="s">
         <v>2</v>
       </c>
       <c r="H5">
-        <v>0.69305600000000001</v>
+        <v>3.0870199999999999</v>
       </c>
       <c r="I5">
-        <v>0.351605</v>
+        <v>1.96366</v>
       </c>
       <c r="J5">
-        <v>0.28813899999999998</v>
+        <v>1.37723</v>
       </c>
       <c r="K5">
-        <v>0.26148300000000002</v>
+        <v>0.99261900000000003</v>
+      </c>
+      <c r="Q5">
+        <v>16.237300000000001</v>
+      </c>
+      <c r="R5">
+        <v>11.5839</v>
+      </c>
+      <c r="S5">
+        <v>9.0947700000000005</v>
+      </c>
+      <c r="T5">
+        <v>7.23393</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>1.4724299999999999</v>
+        <v>19.490600000000001</v>
       </c>
       <c r="C6">
-        <v>1.35057</v>
+        <v>20.006</v>
       </c>
       <c r="D6">
-        <v>1.3404199999999999</v>
+        <v>19.272300000000001</v>
       </c>
       <c r="E6">
-        <v>1.34422</v>
+        <v>18.5703</v>
       </c>
       <c r="G6" t="s">
         <v>3</v>
       </c>
       <c r="H6">
-        <v>0.458229</v>
+        <v>14.650600000000001</v>
       </c>
       <c r="I6">
-        <v>0.303371</v>
+        <v>11.8429</v>
       </c>
       <c r="J6">
-        <v>0.26148300000000002</v>
+        <v>11.404999999999999</v>
       </c>
       <c r="K6">
-        <v>0.23355699999999999</v>
+        <v>9.9680700000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>4.4363200000000003</v>
+        <v>19.0717</v>
       </c>
       <c r="C7">
-        <v>4.2459199999999999</v>
+        <v>19.614999999999998</v>
       </c>
       <c r="D7">
-        <v>4.0567900000000003</v>
+        <v>18.514500000000002</v>
       </c>
       <c r="E7">
-        <v>3.9666700000000001</v>
+        <v>18.530999999999999</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
       </c>
       <c r="H7">
-        <v>1.68187</v>
+        <v>14.2559</v>
       </c>
       <c r="I7">
-        <v>0.70701899999999995</v>
+        <v>12.375999999999999</v>
       </c>
       <c r="J7">
-        <v>0.313525</v>
+        <v>11.563599999999999</v>
       </c>
       <c r="K7">
-        <v>0.163744</v>
+        <v>10.1128</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>6</v>
+      </c>
+      <c r="S7">
+        <v>9</v>
+      </c>
+      <c r="T7">
+        <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q8">
+        <v>5.4949399999999997</v>
+      </c>
+      <c r="R8">
+        <v>5.5926799999999997</v>
+      </c>
+      <c r="S8">
+        <v>5.5723700000000003</v>
+      </c>
+      <c r="T8">
+        <v>5.5622199999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="Q9">
+        <v>3.0870199999999999</v>
+      </c>
+      <c r="R9">
+        <v>1.96366</v>
+      </c>
+      <c r="S9">
+        <v>1.37723</v>
+      </c>
+      <c r="T9">
+        <v>0.99261900000000003</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -6595,7 +12668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -6632,161 +12705,350 @@
       <c r="M11">
         <v>50</v>
       </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>6</v>
+      </c>
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <v>12</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12">
-        <v>4.4655100000000001</v>
+        <v>24.4727</v>
       </c>
       <c r="C12">
-        <v>4.3512700000000004</v>
+        <v>24.672000000000001</v>
       </c>
       <c r="D12">
-        <v>4.3525400000000003</v>
+        <v>24.745699999999999</v>
       </c>
       <c r="E12">
-        <v>4.4312399999999998</v>
+        <v>24.848500000000001</v>
       </c>
       <c r="F12">
-        <v>4.3906200000000002</v>
+        <v>24.745699999999999</v>
       </c>
       <c r="H12" t="s">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.73240499999999997</v>
+        <v>15.9758</v>
       </c>
       <c r="J12">
-        <v>0.72225099999999998</v>
+        <v>16.1751</v>
       </c>
       <c r="K12">
-        <v>0.73621300000000001</v>
+        <v>16.1434</v>
       </c>
       <c r="L12">
-        <v>0.80094900000000002</v>
+        <v>16.208100000000002</v>
       </c>
       <c r="M12">
-        <v>0.77683199999999997</v>
+        <v>16.262699999999999</v>
+      </c>
+      <c r="Q12">
+        <v>19.490600000000001</v>
+      </c>
+      <c r="R12">
+        <v>20.006</v>
+      </c>
+      <c r="S12">
+        <v>19.272300000000001</v>
+      </c>
+      <c r="T12">
+        <v>18.5703</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13">
-        <v>1.5117799999999999</v>
+        <v>5.5228700000000002</v>
       </c>
       <c r="C13">
-        <v>1.5028900000000001</v>
+        <v>5.48733</v>
       </c>
       <c r="D13">
-        <v>1.50162</v>
+        <v>5.50129</v>
       </c>
       <c r="E13">
-        <v>1.5117799999999999</v>
+        <v>5.4822499999999996</v>
       </c>
       <c r="F13">
-        <v>1.51939</v>
+        <v>5.4099000000000004</v>
       </c>
       <c r="H13" t="s">
         <v>2</v>
       </c>
       <c r="I13">
-        <v>0.54835199999999995</v>
+        <v>3.14541</v>
       </c>
       <c r="J13">
-        <v>0.58897100000000002</v>
+        <v>3.1314500000000001</v>
       </c>
       <c r="K13">
-        <v>0.55596800000000002</v>
+        <v>3.4513199999999999</v>
       </c>
       <c r="L13">
-        <v>0.58643199999999995</v>
+        <v>5.0747900000000001</v>
       </c>
       <c r="M13">
-        <v>0.58643199999999995</v>
+        <v>3.0654400000000002</v>
+      </c>
+      <c r="Q13">
+        <v>14.650600000000001</v>
+      </c>
+      <c r="R13">
+        <v>11.8429</v>
+      </c>
+      <c r="S13">
+        <v>11.404999999999999</v>
+      </c>
+      <c r="T13">
+        <v>9.9680700000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14">
-        <v>1.38611</v>
+        <v>19.408100000000001</v>
       </c>
       <c r="C14">
-        <v>1.4026099999999999</v>
+        <v>19.499500000000001</v>
       </c>
       <c r="D14">
-        <v>1.3823000000000001</v>
+        <v>19.380199999999999</v>
       </c>
       <c r="E14">
-        <v>1.3734200000000001</v>
+        <v>19.508400000000002</v>
       </c>
       <c r="F14">
-        <v>1.3911899999999999</v>
+        <v>19.6874</v>
       </c>
       <c r="H14" t="s">
         <v>3</v>
       </c>
       <c r="I14">
-        <v>0.47980800000000001</v>
+        <v>14.6227</v>
       </c>
       <c r="J14">
-        <v>0.46203699999999998</v>
+        <v>14.5694</v>
       </c>
       <c r="K14">
-        <v>0.44172800000000001</v>
+        <v>15.035299999999999</v>
       </c>
       <c r="L14">
-        <v>0.45949899999999999</v>
+        <v>14.6836</v>
       </c>
       <c r="M14">
-        <v>0.467115</v>
+        <v>14.621499999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15">
-        <v>4.3741199999999996</v>
+        <v>19.263400000000001</v>
       </c>
       <c r="C15">
-        <v>4.4325099999999997</v>
+        <v>18.734100000000002</v>
       </c>
       <c r="D15">
-        <v>4.3182700000000001</v>
+        <v>19.0197</v>
       </c>
       <c r="E15">
-        <v>4.3385800000000003</v>
+        <v>19.052700000000002</v>
       </c>
       <c r="F15">
-        <v>4.4287000000000001</v>
+        <v>19.142800000000001</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
       </c>
       <c r="I15">
-        <v>1.7174100000000001</v>
+        <v>14.2965</v>
       </c>
       <c r="J15">
-        <v>1.7301</v>
+        <v>14.4298</v>
       </c>
       <c r="K15">
-        <v>1.7516799999999999</v>
+        <v>14.4628</v>
       </c>
       <c r="L15">
-        <v>1.7288300000000001</v>
+        <v>14.457700000000001</v>
       </c>
       <c r="M15">
-        <v>1.74153</v>
+        <v>14.412000000000001</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>9</v>
+      </c>
+      <c r="T15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q16">
+        <v>19.0717</v>
+      </c>
+      <c r="R16">
+        <v>19.614999999999998</v>
+      </c>
+      <c r="S16">
+        <v>18.514500000000002</v>
+      </c>
+      <c r="T16">
+        <v>18.530999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="17:20" x14ac:dyDescent="0.2">
+      <c r="Q17">
+        <v>14.2559</v>
+      </c>
+      <c r="R17">
+        <v>12.375999999999999</v>
+      </c>
+      <c r="S17">
+        <v>11.563599999999999</v>
+      </c>
+      <c r="T17">
+        <v>10.1128</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>20.386800000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>23.200900000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>24.514600000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>25.158200000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>25.409500000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>25.181000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>25.130299999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>24.904299999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>24.847200000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>24.911899999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>24.7088</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>24.7685</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>